--- a/kansensya_pcr_1.xlsx
+++ b/kansensya_pcr_1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file.kobe.local\top\02_作業文書\01_組織\平成31年度\01_市長室\03_広報戦略部\01_広報課\04_HP\コロナ\HP作図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\201058\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="＿" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">kobe!$A$1:$J$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">kobe!$A$1:$J$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">other!$A$1:$H$23</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -195,19 +195,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※　16件調査中</t>
-    <rPh sb="4" eb="5">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※ 患者発生総数【速報含む】は、調査中も含みます。</t>
     <rPh sb="16" eb="19">
       <t>チョウサチュウ</t>
@@ -273,6 +260,19 @@
     </rPh>
     <rPh sb="33" eb="35">
       <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※　39件調査中</t>
+    <rPh sb="4" eb="5">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -784,11 +784,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -877,7 +877,7 @@
         <v>43932</v>
       </c>
       <c r="B4" s="33">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C4" s="35">
         <v>76</v>
@@ -911,17 +911,17 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="17"/>
       <c r="B6" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -972,13 +972,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A58" sqref="A58"/>
+      <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2366,7 +2366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <v>43922</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>43923</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <v>43924</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>43925</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>43926</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>43927</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>43928</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>43929</v>
       </c>
@@ -2622,14 +2622,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <v>43930</v>
       </c>
-      <c r="B57" s="32">
+      <c r="B57" s="39">
         <v>63</v>
       </c>
-      <c r="C57" s="32">
+      <c r="C57" s="39">
         <v>688</v>
       </c>
       <c r="D57" s="39">
@@ -2654,7 +2654,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="17">
         <v>43931</v>
       </c>
@@ -2665,10 +2665,10 @@
         <v>718</v>
       </c>
       <c r="D58" s="39">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E58" s="38">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F58" s="9">
         <v>43</v>
@@ -2686,34 +2686,66 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="3"/>
-      <c r="F59" s="9"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="3"/>
-      <c r="B60" s="9" t="s">
+    <row r="59" spans="1:10" s="33" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="34">
+        <v>43932</v>
+      </c>
+      <c r="B59" s="39">
+        <v>20</v>
+      </c>
+      <c r="C59" s="39">
+        <v>738</v>
+      </c>
+      <c r="D59" s="39">
+        <v>14</v>
+      </c>
+      <c r="E59" s="38">
+        <v>113</v>
+      </c>
+      <c r="F59" s="9">
+        <v>43</v>
+      </c>
+      <c r="G59" s="9">
+        <v>39</v>
+      </c>
+      <c r="H59" s="9">
+        <v>4</v>
+      </c>
+      <c r="I59" s="9">
+        <v>0</v>
+      </c>
+      <c r="J59" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="33" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="34"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A61" s="3"/>
+      <c r="B61" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="21"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="19"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B61" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="23"/>
-      <c r="E61" s="24"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="20"/>
       <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
+      <c r="G61" s="19"/>
       <c r="H61" s="22"/>
       <c r="I61" s="19"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B62" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="D62" s="23"/>
       <c r="E62" s="24"/>
       <c r="F62" s="22"/>
@@ -2721,30 +2753,27 @@
       <c r="H62" s="22"/>
       <c r="I62" s="19"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D63" s="36"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C64" s="7"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D63" s="23"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="19"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D64" s="36"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="33"/>
       <c r="H64" s="44"/>
-      <c r="I64" s="44"/>
+      <c r="I64" s="33"/>
       <c r="J64" s="33"/>
-      <c r="K64" s="6"/>
     </row>
     <row r="65" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C65" s="7"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="41"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="43"/>
       <c r="F65" s="37"/>
       <c r="G65" s="37"/>
       <c r="H65" s="44"/>
@@ -2769,10 +2798,21 @@
       <c r="E67" s="41"/>
       <c r="F67" s="37"/>
       <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="37"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="33"/>
       <c r="K67" s="6"/>
+    </row>
+    <row r="68" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C68" s="7"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2786,13 +2826,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3603,8 +3643,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B35" s="1" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="34">
+        <v>43932</v>
+      </c>
+      <c r="B34" s="38">
+        <v>0</v>
+      </c>
+      <c r="C34" s="38">
+        <v>8</v>
+      </c>
+      <c r="D34" s="38">
+        <v>6</v>
+      </c>
+      <c r="E34" s="38">
+        <v>5</v>
+      </c>
+      <c r="F34" s="35">
+        <v>1</v>
+      </c>
+      <c r="G34" s="35">
+        <v>0</v>
+      </c>
+      <c r="H34" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B36" s="1" t="s">
         <v>7</v>
       </c>
     </row>
